--- a/3_metrics/accuracy for RQ1 RQ2 RQ3.xlsx
+++ b/3_metrics/accuracy for RQ1 RQ2 RQ3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="27">
   <si>
     <t>hop_one</t>
   </si>
@@ -94,6 +94,30 @@
   </si>
   <si>
     <t>bs_axplorer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy mean without outlier for RQ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy std without outlier for RQ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy mean without outlier for RQ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy std without outlier for RQ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy mean without outlier for RQ3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy std without outlier for RQ3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,10 +195,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -479,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -496,13 +520,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
@@ -621,13 +645,13 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
@@ -745,10 +769,262 @@
         <v>0.1089</v>
       </c>
     </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.59279999999999999</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.22159999999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.39879999999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.3876</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.2485</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.34060000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.56620000000000004</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.98750000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.33160000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.1651</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.2097</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.1658</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.14849999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.1061</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.2051</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.1285</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.14319999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.1207</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.77E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.2049</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.39E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.2545</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.19620000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -757,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J23"/>
+  <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -777,17 +1053,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
@@ -991,17 +1267,17 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
@@ -1204,16 +1480,440 @@
         <v>0.1525</v>
       </c>
     </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.59279999999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.41689999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.22159999999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.39879999999999999</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.371</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.3876</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.38519999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.3054</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.2485</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.3649</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.36159999999999998</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.3493</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.56620000000000004</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.93469999999999998</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.98509999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.97719999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.81830000000000003</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.64849999999999997</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.43569999999999998</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.31440000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.1651</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.15690000000000001</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.2097</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.1658</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.1061</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.1452</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.2051</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.17630000000000001</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.1285</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.1012</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.1346</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.1207</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.1502</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.1497</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.1444</v>
+      </c>
+      <c r="E37" s="1">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.77E-2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.2049</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.39E-2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.2545</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.2087</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.19620000000000001</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.15870000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B32:J32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1222,28 +1922,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F35" sqref="F34:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
@@ -1328,12 +2029,12 @@
       <c r="E9" s="3"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
@@ -1376,7 +2077,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1387,7 +2088,7 @@
         <v>0.1009</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +2099,7 @@
         <v>0.1081</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1409,10 +2110,176 @@
         <v>0.1089</v>
       </c>
     </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.2369</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.2195</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.3876</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.34060000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.98750000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.44190000000000002</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.38059999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.33160000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.14849999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.1187</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.14319999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.17080000000000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.1971</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.19620000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
